--- a/数据整理/stocks/A股/上证主板/600019-宝钢股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600019-宝钢股份.xlsx
@@ -451,715 +451,965 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>515900</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4448</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515680</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9144</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515600</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6738</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2744</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2378</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>17.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2140</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>510160</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>南方中证南方小康产业ETF</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>98.43</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>4.50</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1827</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159974</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1409</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>16.22</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1362</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1142</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>515500</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>海富通中证长三角领先ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160638</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0872</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>673030</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>西部利得多策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>71.13</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>167503</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>安信中证一带一路主题指数</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>97.86</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>007397</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>94.52</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>2.32</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159944</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发中证全指原材料ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>501310</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>160638</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>鹏华中证一带一路主题指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>94.58</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>167503</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>安信中证一带一路主题指数</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>159944</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>广发中证全指原材料ETF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>99.08</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>502023</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>鹏华国证钢铁行业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>94.83</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>17.69</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>168203</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中融国证钢铁行业指数</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>93.23</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>16.22</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>008114</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>天弘中证红利低波动100指数A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>94.12</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>008115</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>天弘中证红利低波动100指数C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>94.12</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009439</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>93.68</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>159974</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>富国中证央企创新驱动ETF</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>99.22</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>501059</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>93.68</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>512530</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>建信沪深300红利ETF</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>95.49</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>515100</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>景顺长城中证红利低波动100ETF</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>97.86</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>515210</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>国泰中证钢铁ETF</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>96.57</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>9.59</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>515450</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>南方标普中国A股大盘红利低波50ETF</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>98.98</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>515500</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>海富通中证长三角领先ETF</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>515600</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>广发中证央企创新驱动ETF</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>99.13</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>515680</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>嘉实中证央企创新驱动ETF</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>98.98</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>515900</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>博时中证央企创新驱动ETF</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>99.05</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>673030</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>西部利得多策略优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>71.13</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>009242</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>中加核心智造混合A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>85.24</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>009243</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>中加核心智造混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>85.24</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>8</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1169,7 +1419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1190,15 +1440,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004724</t>
+          <t>510880</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>先锋聚元灵活配置混合A</t>
+          <t>华泰柏瑞上证红利ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.49</t>
+          <t>138.99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
+          <t>97.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.1141</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004725</t>
+          <t>001071</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>先锋聚元灵活配置混合C</t>
+          <t>华安媒体互联网混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.49</t>
+          <t>44.89</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1278</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005120</t>
+          <t>515900</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>上投摩根量化多因子灵活配置混合</t>
+          <t>博时中证央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>97.22</t>
+          <t>44.69</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7474</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1294,25 +1584,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>960005</t>
+          <t>590002</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>上投摩根双息平衡混合H</t>
+          <t>中邮核心成长混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>63.79</t>
+          <t>53.06</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>82.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6183</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001581</t>
+          <t>502023</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华安沪港深通精选灵活配置混合</t>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>85.33</t>
+          <t>6.37</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>20.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2899</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006401</t>
+          <t>515680</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>先锋量化优选灵活配置混合A</t>
+          <t>嘉实中证央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.83</t>
+          <t>28.82</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1125</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006402</t>
+          <t>006879</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>先锋量化优选灵活配置混合C</t>
+          <t>华安智能生活混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.83</t>
+          <t>20.64</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9825</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1406,25 +1736,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005128</t>
+          <t>515600</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华夏永康添福混合</t>
+          <t>广发中证央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>24.89</t>
+          <t>23.14</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9094</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>000042</t>
+          <t>720001</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强A</t>
+          <t>财通价值动量混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.48</t>
+          <t>19.64</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>79.67</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7110</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>003184</t>
+          <t>001224</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强C</t>
+          <t>中邮新思路灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.48</t>
+          <t>20.13</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
+          <t>77.75</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6381</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005569</t>
+          <t>100032</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中融智选红利股票A</t>
+          <t>富国中证红利指数增强</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>93.09</t>
+          <t>46.15</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>3</v>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6092</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005570</t>
+          <t>210005</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中融智选红利股票C</t>
+          <t>金鹰主题优势混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>93.09</t>
+          <t>9.91</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>3</v>
+          <t>81.48</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5738</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>005574</t>
+          <t>168203</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>东吴悦秀纯债债券C</t>
+          <t>中融国证钢铁行业指数</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>93.09</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>3</v>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>19.97</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5232</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>005580</t>
+          <t>515210</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>光大保德信晟利债券C</t>
+          <t>国泰中证钢铁ETF</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>93.09</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>3</v>
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>11.41</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4998</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>005592</t>
+          <t>002620</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>长安裕腾灵活配置混合C</t>
+          <t>中邮未来新蓝筹灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>93.09</t>
+          <t>11.12</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>3</v>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3714</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>005591</t>
+          <t>090010</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>汇添富鑫永定期开放债券C</t>
+          <t>大成中证红利指数A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>93.09</t>
+          <t>23.70</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>3</v>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3555</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>161907</t>
+          <t>210004</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>万家中证红利指数(LOF)</t>
+          <t>金鹰稳健成长混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>95.02</t>
+          <t>5.32</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
+          <t>78.03</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3203</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -1686,25 +2116,35 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>005630</t>
+          <t>007460</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>华安研究精选混合</t>
+          <t>华安成长创新混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>80.95</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2984</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1714,25 +2154,35 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>210004</t>
+          <t>020009</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>金鹰稳健成长混合</t>
+          <t>国泰金鹏蓝筹混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>78.03</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>6.02</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2978</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>210005</t>
+          <t>009968</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>金鹰主题优势混合</t>
+          <t>金鹰内需成长混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>81.48</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5.79</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>2</v>
+          <t>82.12</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2679</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>009918</t>
+          <t>005630</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>上银核心成长混合A</t>
+          <t>华安研究精选混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>82.74</t>
+          <t>5.59</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>8</v>
+          <t>80.95</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2549</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>009919</t>
+          <t>373010</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>上银核心成长混合C</t>
+          <t>上投摩根双息平衡混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>82.74</t>
+          <t>11.00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>8</v>
+          <t>63.79</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2486</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>009968</t>
+          <t>001581</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>金鹰内需成长混合A</t>
+          <t>华安沪港深通精选灵活配置混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>82.12</t>
+          <t>9.71</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>7.34</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>3</v>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2272</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -1854,26 +2344,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>009969</t>
+          <t>001445</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>金鹰内需成长混合C</t>
+          <t>华安国企改革主题灵活配置混合</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>82.12</t>
+          <t>6.02</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>7.34</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>3</v>
+          <t>78.53</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2113</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -1882,26 +2382,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>006230</t>
+          <t>510160</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>鹏华研究驱动混合</t>
+          <t>南方中证南方小康产业ETF</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>87.46</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>7</v>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2064</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1910,26 +2420,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>006349</t>
+          <t>159974</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>中金MSCI中国A股国际价值指数A</t>
+          <t>富国中证央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>95.00</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>9</v>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1876</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -1938,25 +2458,35 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>006350</t>
+          <t>515180</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>中金MSCI中国A股国际价值指数C</t>
+          <t>易方达中证红利ETF</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>95.00</t>
+          <t>11.80</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1853</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1966,26 +2496,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>006502</t>
+          <t>001990</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>财通集成电路产业股票A</t>
+          <t>中欧数据挖掘多因子灵活配置混合A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>88.19</t>
+          <t>12.97</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>9</v>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1660</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1994,26 +2534,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>006503</t>
+          <t>005592</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>财通集成电路产业股票C</t>
+          <t>长安裕腾灵活配置混合C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>88.19</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>9</v>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1595</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -2022,26 +2572,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>373010</t>
+          <t>001276</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>上投摩根双息平衡混合A</t>
+          <t>建信新经济灵活配置混合</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>63.79</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>9</v>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1547</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -2050,25 +2610,35 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>006879</t>
+          <t>001105</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>华安智能生活混合</t>
+          <t>信达澳银转型创新股票</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>89.59</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1135</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2078,26 +2648,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>501059</t>
+          <t>515450</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>91.85</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>2</v>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="34">
@@ -2106,26 +2686,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>009439</t>
+          <t>160638</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+          <t>鹏华中证一带一路主题指数（LOF）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>91.85</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>2</v>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0866</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="35">
@@ -2134,26 +2724,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>001071</t>
+          <t>001825</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>华安媒体互联网混合</t>
+          <t>建信中国制造2025股票</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>89.65</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>6</v>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -2162,26 +2762,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>001105</t>
+          <t>515080</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>信达澳银转型创新股票</t>
+          <t>招商中证红利ETF</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>93.18</t>
+          <t>5.18</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>6</v>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="37">
@@ -2190,26 +2800,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>502023</t>
+          <t>009969</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>鹏华国证钢铁行业指数（LOF）</t>
+          <t>金鹰内需成长混合C</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>94.57</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>20.25</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>1</v>
+          <t>82.12</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0749</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -2218,26 +2838,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>510160</t>
+          <t>006502</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>南方中证南方小康产业ETF</t>
+          <t>财通集成电路产业股票A</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>99.06</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>6.07</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>1</v>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="39">
@@ -2246,26 +2876,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>001224</t>
+          <t>004234</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>中邮新思路灵活配置混合</t>
+          <t>中欧数据挖掘多因子灵活配置混合C</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>77.75</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>7</v>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -2274,26 +2914,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>007460</t>
+          <t>515500</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>华安成长创新混合</t>
+          <t>海富通中证长三角领先ETF</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>84.04</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>5</v>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="41">
@@ -2302,26 +2952,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>510880</t>
+          <t>512530</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>华泰柏瑞上证红利ETF</t>
+          <t>建信沪深300红利ETF</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>97.61</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>4</v>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -2330,26 +2990,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>001276</t>
+          <t>515690</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>建信新经济灵活配置混合</t>
+          <t>鹏华中证高股息龙头ETF</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>87.30</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>8.79</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>2</v>
+          <t>95.85</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -2358,26 +3028,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>512530</t>
+          <t>000042</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>建信沪深300红利ETF</t>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强A</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>94.60</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>1</v>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="44">
@@ -2386,26 +3066,36 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>020009</t>
+          <t>501059</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>国泰金鹏蓝筹混合</t>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>84.21</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>4</v>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -2414,25 +3104,35 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>515080</t>
+          <t>001980</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>招商中证红利ETF</t>
+          <t>中欧量化驱动混合</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>99.24</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2442,26 +3142,36 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>515180</t>
+          <t>167503</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>易方达中证红利ETF</t>
+          <t>安信中证一带一路主题指数</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>99.03</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>9</v>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="47">
@@ -2470,26 +3180,36 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>515210</t>
+          <t>006503</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>国泰中证钢铁ETF</t>
+          <t>财通集成电路产业股票C</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>98.47</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11.41</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>1</v>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="48">
@@ -2498,26 +3218,36 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>001445</t>
+          <t>004352</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>华安国企改革主题灵活配置混合</t>
+          <t>北信瑞丰研究精选股票</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>78.53</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>9</v>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="49">
@@ -2526,26 +3256,36 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>515450</t>
+          <t>005580</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>南方标普中国A股大盘红利低波50ETF</t>
+          <t>光大保德信晟利债券C</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>99.12</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>7</v>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="50">
@@ -2554,26 +3294,36 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>515500</t>
+          <t>519183</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>海富通中证长三角领先ETF</t>
+          <t>万家双引擎灵活配置混合</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>7</v>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="51">
@@ -2582,26 +3332,36 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>515600</t>
+          <t>005569</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>广发中证央企创新驱动ETF</t>
+          <t>中融智选红利股票A</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>99.35</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>4</v>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="52">
@@ -2610,26 +3370,36 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>515680</t>
+          <t>168106</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>嘉实中证央企创新驱动ETF</t>
+          <t>九泰盈华量化灵活配置混合（LOF）A</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>99.15</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>4</v>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="53">
@@ -2638,26 +3408,36 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>515690</t>
+          <t>007801</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>鹏华中证高股息龙头ETF</t>
+          <t>大成中证红利指数C</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>95.85</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>4</v>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="54">
@@ -2666,26 +3446,36 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>515890</t>
+          <t>005128</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>博时中证红利ETF</t>
+          <t>华夏永康添福混合</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>98.94</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>9</v>
+          <t>24.89</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="55">
@@ -2694,26 +3484,36 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>515900</t>
+          <t>006401</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>博时中证央企创新驱动ETF</t>
+          <t>先锋量化优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>98.96</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>4</v>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -2722,26 +3522,36 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>090010</t>
+          <t>009918</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>大成中证红利指数A</t>
+          <t>上银核心成长混合A</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>94.10</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
-        <v>9</v>
+          <t>82.74</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="57">
@@ -2750,26 +3560,36 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>007801</t>
+          <t>168107</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>大成中证红利指数C</t>
+          <t>九泰盈华量化灵活配置混合（LOF）C</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>94.10</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>9</v>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="58">
@@ -2778,26 +3598,36 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>100032</t>
+          <t>006230</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>富国中证红利指数增强</t>
+          <t>鹏华研究驱动混合</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>90.62</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
-        <v>10</v>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="59">
@@ -2806,26 +3636,36 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>519183</t>
+          <t>161907</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>万家双引擎灵活配置混合</t>
+          <t>万家中证红利指数(LOF)</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>93.82</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
-        <v>5</v>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="60">
@@ -2834,26 +3674,36 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>159944</t>
+          <t>005120</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>广发中证全指原材料ETF</t>
+          <t>上投摩根量化多因子灵活配置混合</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>99.05</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
-        <v>6</v>
+          <t>97.22</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="61">
@@ -2862,26 +3712,36 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>159974</t>
+          <t>159944</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>富国中证央企创新驱动ETF</t>
+          <t>广发中证全指原材料ETF</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>98.96</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="F61" t="n">
-        <v>4</v>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="62">
@@ -2890,26 +3750,36 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>001825</t>
+          <t>009919</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>建信中国制造2025股票</t>
+          <t>上银核心成长混合C</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>84.63</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>8.36</t>
-        </is>
-      </c>
-      <c r="F62" t="n">
-        <v>2</v>
+          <t>82.74</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="63">
@@ -2918,26 +3788,36 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>001980</t>
+          <t>515890</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>中欧量化驱动混合</t>
+          <t>博时中证红利ETF</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>87.55</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="F63" t="n">
-        <v>8</v>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="64">
@@ -2946,26 +3826,36 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>001990</t>
+          <t>006349</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>中欧数据挖掘多因子灵活配置混合A</t>
+          <t>中金MSCI中国A股国际价值指数A</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>89.17</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="F64" t="n">
-        <v>1</v>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="65">
@@ -2974,26 +3864,36 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>004234</t>
+          <t>009439</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>中欧数据挖掘多因子灵活配置混合C</t>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>89.17</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="F65" t="n">
-        <v>1</v>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -3002,26 +3902,36 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>160638</t>
+          <t>004724</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>鹏华中证一带一路主题指数（LOF）</t>
+          <t>先锋聚元灵活配置混合A</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>94.81</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="F66" t="n">
-        <v>7</v>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="67">
@@ -3030,26 +3940,36 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>590002</t>
+          <t>004725</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>中邮核心成长混合</t>
+          <t>先锋聚元灵活配置混合C</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>82.66</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="F67" t="n">
-        <v>9</v>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -3058,26 +3978,36 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>720001</t>
+          <t>005570</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>财通价值动量混合</t>
+          <t>中融智选红利股票C</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>79.67</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="F68" t="n">
-        <v>10</v>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="69">
@@ -3086,26 +4016,36 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>167503</t>
+          <t>005591</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>安信中证一带一路主题指数</t>
+          <t>汇添富鑫永定期开放债券C</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>94.72</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="F69" t="n">
-        <v>7</v>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70">
@@ -3114,26 +4054,36 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>168106</t>
+          <t>006350</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>九泰盈华量化灵活配置混合（LOF）A</t>
+          <t>中金MSCI中国A股国际价值指数C</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>94.27</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F70" t="n">
-        <v>3</v>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="71">
@@ -3142,26 +4092,30 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>168107</t>
+          <t>960005</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>九泰盈华量化灵活配置混合（LOF）C</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>94.27</t>
-        </is>
-      </c>
+          <t>上投摩根双息平衡混合H</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F71" t="n">
-        <v>3</v>
+          <t>63.79</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="72">
@@ -3170,26 +4124,30 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>168203</t>
+          <t>006402</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>中融国证钢铁行业指数</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>93.17</t>
-        </is>
-      </c>
+          <t>先锋量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>19.97</t>
-        </is>
-      </c>
-      <c r="F72" t="n">
-        <v>1</v>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -3198,26 +4156,30 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>002620</t>
+          <t>003184</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>中邮未来新蓝筹灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>83.78</t>
-        </is>
-      </c>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="F73" t="n">
-        <v>10</v>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="74">
@@ -3226,26 +4188,30 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>004352</t>
+          <t>005574</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>北信瑞丰研究精选股票</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>88.23</t>
-        </is>
-      </c>
+          <t>东吴悦秀纯债债券C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="F74" t="n">
-        <v>8</v>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600019-宝钢股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600019-宝钢股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4100,7 +4101,6 @@
           <t>上投摩根双息平衡混合H</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
           <t>63.79</t>
@@ -4132,7 +4132,6 @@
           <t>先锋量化优选灵活配置混合C</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
           <t>93.83</t>
@@ -4164,7 +4163,6 @@
           <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强C</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
           <t>94.48</t>
@@ -4196,7 +4194,6 @@
           <t>东吴悦秀纯债债券C</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
           <t>93.09</t>
@@ -4212,6 +4209,1088 @@
       </c>
       <c r="H74" t="n">
         <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>156.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.2490</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>13.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8629</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011256</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德鸿光一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>57.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>21.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2542</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515900</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>43.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2085</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000311</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城沪深300指数增强</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>53.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1106</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0609</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>57.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8955</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>515680</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>26.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7716</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515600</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6146</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>13.48</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4273</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011257</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>交银施罗德鸿光一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.98</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>21.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3938</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>217002</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商安泰平衡混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>40.22</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3729</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002317</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商睿逸稳健配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>40.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2756</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159974</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1360</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>510160</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方中证南方小康产业ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1283</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160638</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>515690</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华中证高股息龙头ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>96.27</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>167503</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>安信中证一带一路主题指数</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005120</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>上投摩根量化多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004606</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>上投摩根优选多因子股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159944</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发中证全指原材料ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006349</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际价值指数A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006350</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际价值指数C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600019-宝钢股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600019-宝钢股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5296,4 +5297,2072 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>154.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.4166</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005730</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>64.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.4792</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009474</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰致远优势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>42.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3040</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>12.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1839</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5148</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>515900</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>50.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4419</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501092</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞思三年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>60.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3204</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001751</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商信用增强债券A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>46.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8697</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515680</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>28.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7978</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>515600</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>22.86</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6447</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>12.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5592</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519700</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>交银主题优选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>70.54</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4516</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001752</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华商信用增强债券C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>22.92</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4309</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>217002</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商安泰平衡混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>46.58</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4245</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002317</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商睿逸稳健配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>45.19</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3575</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519779</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>交银施罗德沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.33</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3533</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005273</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华商可转债债券A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>19.56</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>37.55</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2993</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011325</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2398</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003857</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.28</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1926</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159974</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1621</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012545</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富荣福银混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>69.65</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1412</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>510160</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方中证南方小康产业ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1319</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519756</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>交银施罗德国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1303</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005284</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华商可转债债券C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>37.55</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1200</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>69.76</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1130</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>393001</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中海优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>73.17</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1032</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010957</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>九泰久安量化股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>73.44</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002871</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002545</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东方岳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>080005</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长盛量化红利混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002872</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001209</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>前海开源一带一路主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003658</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长盛量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>43.32</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>515690</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏华中证高股息龙头ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>96.32</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005632</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>510130</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>易方达上证中盘ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>003858</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>79.28</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>69.76</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001226</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中邮稳健添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>515500</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>海富通中证长三角领先ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006698</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>红土创新沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>73.44</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002080</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>前海开源一带一路主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>159944</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>广发中证全指原材料ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>98.35</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006349</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际价值指数A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006699</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>红土创新沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012546</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>富荣福银混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>69.65</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006350</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际价值指数C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010961</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>九泰久安量化股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600019-宝钢股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600019-宝钢股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7365,4 +7366,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>53</v>
+      </c>
+      <c r="D2" t="n">
+        <v>24.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>27</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>73</v>
+      </c>
+      <c r="D4" t="n">
+        <v>22.38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600019-宝钢股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600019-宝钢股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7374,7 +7375,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7385,17 +7386,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7405,14 +7426,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>53</v>
-      </c>
-      <c r="D2" t="n">
-        <v>24.14</v>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>177.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.0347</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -7421,14 +7464,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>27</v>
-      </c>
-      <c r="D3" t="n">
-        <v>15.05</v>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>13.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4160</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -7437,14 +7502,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>73</v>
-      </c>
-      <c r="D4" t="n">
-        <v>22.38</v>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5968</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -7453,13 +7540,1669 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>515900</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>54.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5932</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501092</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞思三年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1968</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>13.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6711</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519700</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银主题优选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>68.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6447</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>515680</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.88</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6243</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515600</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5979</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005273</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华商可转债债券A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.55</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>40.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2553</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159974</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1841</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519756</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>交银施罗德国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1644</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005284</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华商可转债债券C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>40.05</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1330</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012545</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富荣福银混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>67.85</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1189</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006193</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>510160</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方中证南方小康产业ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1015</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003938</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方荣尊混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>29.08</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1006</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>217002</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商安泰平衡混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>47.49</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0978</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>75.59</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0931</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009907</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>71.65</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>393001</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中海优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>67.49</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002317</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商睿逸稳健配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>44.80</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010957</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>九泰久安量化股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012963</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>66.96</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>75.59</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>515500</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>海富通中证长三角领先ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>96.04</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011097</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009908</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>71.65</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>97.07</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>585001</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>东吴中证新兴</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013802</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012964</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>66.96</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>515690</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏华中证高股息龙头ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>95.53</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>003939</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>南方荣尊混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>29.08</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011098</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>159944</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>广发中证全指原材料ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>98.20</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>013803</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012546</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富荣福银混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>67.85</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006194</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010961</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>九泰久安量化股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>44</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>53</v>
+      </c>
+      <c r="D3" t="n">
+        <v>24.14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>27</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>73</v>
+      </c>
+      <c r="D5" t="n">
+        <v>22.38</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>24</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>4.8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600019-宝钢股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600019-宝钢股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9101,7 +9102,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9112,17 +9113,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9132,14 +9153,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>44</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15.42</v>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1801</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -9148,14 +9191,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>53</v>
-      </c>
-      <c r="D3" t="n">
-        <v>24.14</v>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7133</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -9164,14 +9229,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>27</v>
-      </c>
-      <c r="D4" t="n">
-        <v>15.05</v>
+          <t>002803</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>41.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6021</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -9180,14 +9267,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>73</v>
-      </c>
-      <c r="D5" t="n">
-        <v>22.38</v>
+          <t>515900</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>47.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5203</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -9196,13 +9305,1419 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>010059</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红鼎元3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>27.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3036</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>13.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5861</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515680</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5644</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>515600</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5437</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>910006</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方红启盛三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4402</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>169102</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方红睿阳三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3689</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010442</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方红启盛三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1997</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005273</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华商可转债债券A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>39.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1801</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501029</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1715</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159974</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1692</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012545</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富荣福银混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>76.20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1100</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>510160</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方中证南方小康产业ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>393001</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中海优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>78.65</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0912</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>66.34</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0801</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>65.71</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005284</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华商可转债债券C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>39.60</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009515</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中欧真益稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>66.34</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002388</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>29.63</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>515500</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>海富通中证长三角领先ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>95.16</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011097</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>97.34</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005997</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>29.63</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013802</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011098</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>65.71</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>159944</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发中证全指原材料ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>98.36</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009516</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中欧真益稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013803</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009387</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实稳福混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>34.71</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012546</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富荣福银混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>76.20</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010957</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>九泰久安量化股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>81.02</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009388</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>嘉实稳福混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>34.71</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010961</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>九泰久安量化股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>81.02</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>38</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>44</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>53</v>
+      </c>
+      <c r="D4" t="n">
+        <v>24.14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>27</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.05</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>73</v>
+      </c>
+      <c r="D6" t="n">
+        <v>22.38</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>24</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>4.8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600019-宝钢股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600019-宝钢股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10600,7 +10601,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10611,17 +10612,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -10631,14 +10652,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>38</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.27</v>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7347</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -10647,14 +10690,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>44</v>
-      </c>
-      <c r="D3" t="n">
-        <v>15.42</v>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>12.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4378</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -10663,14 +10728,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>53</v>
-      </c>
-      <c r="D4" t="n">
-        <v>24.14</v>
+          <t>012810</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>12.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6315</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -10679,14 +10766,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>27</v>
-      </c>
-      <c r="D5" t="n">
-        <v>15.05</v>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>11.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5034</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -10695,14 +10804,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>73</v>
-      </c>
-      <c r="D6" t="n">
-        <v>22.38</v>
+          <t>169102</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红睿阳三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3286</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -10711,13 +10842,561 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>393001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中海优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1286</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>510160</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方中证南方小康产业ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>61.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003845</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇安丰恒灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>58.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>515500</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>海富通中证长三角领先ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.15</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>61.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013802</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159944</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发中证全指原材料ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013803</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003846</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇安丰恒灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>58.64</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>38</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>44</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>53</v>
+      </c>
+      <c r="D5" t="n">
+        <v>24.14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>27</v>
+      </c>
+      <c r="D6" t="n">
+        <v>15.05</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>73</v>
+      </c>
+      <c r="D7" t="n">
+        <v>22.38</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>24</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>4.8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600019-宝钢股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600019-宝钢股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="D3" t="n">
-        <v>12.27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D4" t="n">
-        <v>15.42</v>
+        <v>12.27</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D5" t="n">
-        <v>24.14</v>
+        <v>15.42</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="D6" t="n">
-        <v>15.05</v>
+        <v>24.14</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="D7" t="n">
-        <v>22.38</v>
+        <v>15.05</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>73</v>
+      </c>
+      <c r="D8" t="n">
+        <v>22.38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>24</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>4.8</v>
       </c>
     </row>
@@ -600,6 +617,1008 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3077</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2172</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012810</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5573</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>12.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4215</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501029</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1127</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>393001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中海优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1022</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013934</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长江红利回报混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>510160</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方中证南方小康产业ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005125</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003845</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇安丰恒灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>61.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>510760</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰上证综合ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>517180</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方富时中国国企开放共赢ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>97.73</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>515500</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>海富通中证长三角领先ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>97.12</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>660006</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>农银大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159719</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>平安富时中国国企开放共赢ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013935</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长江红利回报混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013802</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159944</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发中证全指原材料ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.02</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004403</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006347</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>安信量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013803</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004404</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006346</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>安信量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003846</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇安丰恒灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>61.83</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>016815</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>12.62</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1261,7 +2280,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2759,7 +3778,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4485,7 +5504,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6553,7 +7572,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7635,7 +8654,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10437,7 +11456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600019-宝钢股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600019-宝钢股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D2" t="n">
-        <v>4.07</v>
+        <v>7.19</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>12.27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D5" t="n">
-        <v>15.42</v>
+        <v>12.27</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D6" t="n">
-        <v>24.14</v>
+        <v>15.42</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="D7" t="n">
-        <v>15.05</v>
+        <v>24.14</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="D8" t="n">
-        <v>22.38</v>
+        <v>15.05</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,998 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>73</v>
+      </c>
+      <c r="D9" t="n">
+        <v>22.38</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>24</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>4.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515900</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4448</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515680</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9144</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515600</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6738</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2744</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2378</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>17.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2140</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>510160</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方中证南方小康产业ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1827</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159974</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1409</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>16.22</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1362</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1142</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>515500</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>海富通中证长三角领先ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160638</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0872</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>673030</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>西部利得多策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>71.13</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>167503</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>安信中证一带一路主题指数</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>97.86</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159944</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发中证全指原材料ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1602,1576 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3449</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>59.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3348</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>13.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1849</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003396</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红优享红利混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7647</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012810</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>13.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4333</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>12.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4096</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000480</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方红新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.65</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3822</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001564</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红京东大数据灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>75.39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2898</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501029</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.97</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1624</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008682</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1232</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013934</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长江红利回报混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1028</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>393001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中海优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>78.91</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1019</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>510160</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方中证南方小康产业ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012545</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富荣福银混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005125</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003845</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇安丰恒灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>72.37</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>517180</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方富时中国国企开放共赢ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.15</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.72</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159719</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>平安富时中国国企开放共赢ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003182</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华富弘鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>33.02</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013935</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长江红利回报混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>017493</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东方红新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>76.54</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010984</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国寿安保稳安混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003805</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华安新恒利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>23.86</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013802</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159944</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发中证全指原材料ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>97.90</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010985</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国寿安保稳安混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>016815</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>12.88</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004403</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013803</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004404</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012546</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富荣福银混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003183</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华富弘鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>33.02</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>017535</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>东方红京东大数据灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>75.39</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>017536</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>东方红优享红利混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>81.32</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>003806</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华安新恒利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>23.86</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>003846</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇安丰恒灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>72.37</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1618,7 +4173,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2280,7 +4835,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3778,7 +6333,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5504,7 +8059,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7572,7 +10127,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8654,7 +11209,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11454,972 +14009,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>515900</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>博时中证央企创新驱动ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>49.31</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.05</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.4448</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>515680</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>嘉实中证央企创新驱动ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>31.64</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>98.98</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.9144</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>515600</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发中证央企创新驱动ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>22.61</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>99.13</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.6738</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>515450</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>南方标普中国A股大盘红利低波50ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>6.93</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>98.98</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2744</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>515210</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国泰中证钢铁ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>96.57</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>9.59</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2378</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>502023</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>鹏华国证钢铁行业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.83</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>17.69</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2140</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>510160</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>南方中证南方小康产业ETF</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>98.43</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1827</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>159974</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>富国中证央企创新驱动ETF</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>99.22</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1409</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>168203</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中融国证钢铁行业指数</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.23</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>16.22</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1362</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>008115</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>天弘中证红利低波动100指数C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>6.45</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.12</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1142</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>515500</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>海富通中证长三角领先ETF</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0881</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>160638</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>鹏华中证一带一路主题指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.58</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0872</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>009242</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中加核心智造混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>85.24</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0653</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>673030</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>西部利得多策略优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>71.13</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0548</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>501310</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0362</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>167503</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>安信中证一带一路主题指数</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0299</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>512530</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>建信沪深300红利ETF</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>95.49</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0277</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>515100</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>景顺长城中证红利低波动100ETF</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>97.86</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0232</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>501059</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>93.68</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0218</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>008114</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>天弘中证红利低波动100指数A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>94.12</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0145</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>009243</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>中加核心智造混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>85.24</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0065</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>007397</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0049</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>159944</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>广发中证全指原材料ETF</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>99.08</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0044</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>009439</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>93.68</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0025</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>